--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cfh-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.476664355904551</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H2">
-        <v>0.476664355904551</v>
+        <v>2.015414</v>
       </c>
       <c r="I2">
-        <v>0.004535417322191429</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J2">
-        <v>0.004535417322191429</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N2">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O2">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P2">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q2">
-        <v>0.2666297840268962</v>
+        <v>0.64737113094</v>
       </c>
       <c r="R2">
-        <v>0.2666297840268962</v>
+        <v>5.82634017846</v>
       </c>
       <c r="S2">
-        <v>1.391660526981254E-05</v>
+        <v>2.809561799665825E-05</v>
       </c>
       <c r="T2">
-        <v>1.391660526981254E-05</v>
+        <v>2.942033984813722E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.476664355904551</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H3">
-        <v>0.476664355904551</v>
+        <v>2.015414</v>
       </c>
       <c r="I3">
-        <v>0.004535417322191429</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J3">
-        <v>0.004535417322191429</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N3">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O3">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P3">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q3">
-        <v>32.21321800481374</v>
+        <v>48.11809053836465</v>
       </c>
       <c r="R3">
-        <v>32.21321800481374</v>
+        <v>433.0628148452819</v>
       </c>
       <c r="S3">
-        <v>0.001681352445599959</v>
+        <v>0.002088303642041473</v>
       </c>
       <c r="T3">
-        <v>0.001681352445599959</v>
+        <v>0.002186768159442888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,57 +658,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.476664355904551</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H4">
-        <v>0.476664355904551</v>
+        <v>2.015414</v>
       </c>
       <c r="I4">
-        <v>0.004535417322191429</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J4">
-        <v>0.004535417322191429</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N4">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O4">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P4">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q4">
-        <v>54.41471576617168</v>
+        <v>90.70845113062109</v>
       </c>
       <c r="R4">
-        <v>54.41471576617168</v>
+        <v>816.3760601755898</v>
       </c>
       <c r="S4">
-        <v>0.002840148271321657</v>
+        <v>0.003936706272851509</v>
       </c>
       <c r="T4">
-        <v>0.002840148271321657</v>
+        <v>0.004122323860018342</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>41.107356900176</v>
+        <v>0.6718046666666666</v>
       </c>
       <c r="H5">
-        <v>41.107356900176</v>
+        <v>2.015414</v>
       </c>
       <c r="I5">
-        <v>0.3911327042710465</v>
+        <v>0.006062562609515538</v>
       </c>
       <c r="J5">
-        <v>0.3911327042710465</v>
+        <v>0.006345114347523019</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.559365894940731</v>
+        <v>0.324361</v>
       </c>
       <c r="N5">
-        <v>0.559365894940731</v>
+        <v>0.648722</v>
       </c>
       <c r="O5">
-        <v>0.0030684288305113</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P5">
-        <v>0.0030684288305113</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q5">
-        <v>22.99405348111498</v>
+        <v>0.2179072334846666</v>
       </c>
       <c r="R5">
-        <v>22.99405348111498</v>
+        <v>1.307443400908</v>
       </c>
       <c r="S5">
-        <v>0.001200162866341129</v>
+        <v>9.457076625897975E-06</v>
       </c>
       <c r="T5">
-        <v>0.001200162866341129</v>
+        <v>6.601988213651601E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.107356900176</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H6">
-        <v>41.107356900176</v>
+        <v>129.487055</v>
       </c>
       <c r="I6">
-        <v>0.3911327042710465</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J6">
-        <v>0.3911327042710465</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>67.5805052460525</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N6">
-        <v>67.5805052460525</v>
+        <v>2.89089</v>
       </c>
       <c r="O6">
-        <v>0.3707161493989182</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P6">
-        <v>0.3707161493989182</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q6">
-        <v>2778.055948643696</v>
+        <v>41.59253693655</v>
       </c>
       <c r="R6">
-        <v>2778.055948643696</v>
+        <v>374.33283242895</v>
       </c>
       <c r="S6">
-        <v>0.1449992100313482</v>
+        <v>0.001805097529734475</v>
       </c>
       <c r="T6">
-        <v>0.1449992100313482</v>
+        <v>0.001890208743233121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.107356900176</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H7">
-        <v>41.107356900176</v>
+        <v>129.487055</v>
       </c>
       <c r="I7">
-        <v>0.3911327042710465</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J7">
-        <v>0.3911327042710465</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>114.157299768955</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N7">
-        <v>114.157299768955</v>
+        <v>214.875363</v>
       </c>
       <c r="O7">
-        <v>0.6262154217705705</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P7">
-        <v>0.6262154217705705</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q7">
-        <v>4692.704864362812</v>
+        <v>3091.508660769551</v>
       </c>
       <c r="R7">
-        <v>4692.704864362812</v>
+        <v>27823.57794692597</v>
       </c>
       <c r="S7">
-        <v>0.2449333313733572</v>
+        <v>0.1341700953519845</v>
       </c>
       <c r="T7">
-        <v>0.2449333313733572</v>
+        <v>0.1404962796398309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.1392092338536</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H8">
-        <v>20.1392092338536</v>
+        <v>129.487055</v>
       </c>
       <c r="I8">
-        <v>0.1916227158230128</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J8">
-        <v>0.1916227158230128</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.559365894940731</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N8">
-        <v>0.559365894940731</v>
+        <v>405.066185</v>
       </c>
       <c r="O8">
-        <v>0.0030684288305113</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P8">
-        <v>0.0030684288305113</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q8">
-        <v>11.26518679649315</v>
+        <v>5827.869708415018</v>
       </c>
       <c r="R8">
-        <v>11.26518679649315</v>
+        <v>52450.82737573517</v>
       </c>
       <c r="S8">
-        <v>0.0005879806658122061</v>
+        <v>0.2529269428869544</v>
       </c>
       <c r="T8">
-        <v>0.0005879806658122061</v>
+        <v>0.2648525694423118</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.1392092338536</v>
+        <v>43.16235166666667</v>
       </c>
       <c r="H9">
-        <v>20.1392092338536</v>
+        <v>129.487055</v>
       </c>
       <c r="I9">
-        <v>0.1916227158230128</v>
+        <v>0.3895097374828606</v>
       </c>
       <c r="J9">
-        <v>0.1916227158230128</v>
+        <v>0.4076632247761514</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>67.5805052460525</v>
+        <v>0.324361</v>
       </c>
       <c r="N9">
-        <v>67.5805052460525</v>
+        <v>0.648722</v>
       </c>
       <c r="O9">
-        <v>0.3707161493989182</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P9">
-        <v>0.3707161493989182</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q9">
-        <v>1361.017935279792</v>
+        <v>14.00018354895167</v>
       </c>
       <c r="R9">
-        <v>1361.017935279792</v>
+        <v>84.00110129371001</v>
       </c>
       <c r="S9">
-        <v>0.07103763534727045</v>
+        <v>0.0006076017141871922</v>
       </c>
       <c r="T9">
-        <v>0.07103763534727045</v>
+        <v>0.0004241669507756008</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.1392092338536</v>
+        <v>21.686232</v>
       </c>
       <c r="H10">
-        <v>20.1392092338536</v>
+        <v>65.058696</v>
       </c>
       <c r="I10">
-        <v>0.1916227158230128</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J10">
-        <v>0.1916227158230128</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>114.157299768955</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N10">
-        <v>114.157299768955</v>
+        <v>2.89089</v>
       </c>
       <c r="O10">
-        <v>0.6262154217705705</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P10">
-        <v>0.6262154217705705</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q10">
-        <v>2299.037745618732</v>
+        <v>20.89750374216</v>
       </c>
       <c r="R10">
-        <v>2299.037745618732</v>
+        <v>188.07753367944</v>
       </c>
       <c r="S10">
-        <v>0.1199970998099301</v>
+        <v>0.0009069423305468348</v>
       </c>
       <c r="T10">
-        <v>0.1199970998099301</v>
+        <v>0.0009497050960232717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.0945157919544</v>
+        <v>21.686232</v>
       </c>
       <c r="H11">
-        <v>30.0945157919544</v>
+        <v>65.058696</v>
       </c>
       <c r="I11">
-        <v>0.2863465382612435</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J11">
-        <v>0.2863465382612435</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.559365894940731</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N11">
-        <v>0.559365894940731</v>
+        <v>214.875363</v>
       </c>
       <c r="O11">
-        <v>0.0030684288305113</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P11">
-        <v>0.0030684288305113</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q11">
-        <v>16.83384575877453</v>
+        <v>1553.278991034072</v>
       </c>
       <c r="R11">
-        <v>16.83384575877453</v>
+        <v>13979.51091930665</v>
       </c>
       <c r="S11">
-        <v>0.0008786339735179066</v>
+        <v>0.06741161458800476</v>
       </c>
       <c r="T11">
-        <v>0.0008786339735179066</v>
+        <v>0.07059010451831456</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.0945157919544</v>
+        <v>21.686232</v>
       </c>
       <c r="H12">
-        <v>30.0945157919544</v>
+        <v>65.058696</v>
       </c>
       <c r="I12">
-        <v>0.2863465382612435</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J12">
-        <v>0.2863465382612435</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>67.5805052460525</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N12">
-        <v>67.5805052460525</v>
+        <v>405.066185</v>
       </c>
       <c r="O12">
-        <v>0.3707161493989182</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P12">
-        <v>0.3707161493989182</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q12">
-        <v>2033.802582355584</v>
+        <v>2928.11975442164</v>
       </c>
       <c r="R12">
-        <v>2033.802582355584</v>
+        <v>26353.07778979476</v>
       </c>
       <c r="S12">
-        <v>0.1061532860579182</v>
+        <v>0.1270790897784472</v>
       </c>
       <c r="T12">
-        <v>0.1061532860579182</v>
+        <v>0.1330709297556134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.0945157919544</v>
+        <v>21.686232</v>
       </c>
       <c r="H13">
-        <v>30.0945157919544</v>
+        <v>65.058696</v>
       </c>
       <c r="I13">
-        <v>0.2863465382612435</v>
+        <v>0.1957029264426257</v>
       </c>
       <c r="J13">
-        <v>0.2863465382612435</v>
+        <v>0.2048238552578966</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>114.157299768955</v>
+        <v>0.324361</v>
       </c>
       <c r="N13">
-        <v>114.157299768955</v>
+        <v>0.648722</v>
       </c>
       <c r="O13">
-        <v>0.6262154217705705</v>
+        <v>0.001559914055329434</v>
       </c>
       <c r="P13">
-        <v>0.6262154217705705</v>
+        <v>0.001040483725282092</v>
       </c>
       <c r="Q13">
-        <v>3435.508660663689</v>
+        <v>7.034167897752001</v>
       </c>
       <c r="R13">
-        <v>3435.508660663689</v>
+        <v>42.205007386512</v>
       </c>
       <c r="S13">
-        <v>0.1793146182298074</v>
+        <v>0.0003052797456269542</v>
       </c>
       <c r="T13">
-        <v>0.1793146182298074</v>
+        <v>0.0002131158879453763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.2804887961209</v>
+        <v>30.48803466666666</v>
       </c>
       <c r="H14">
-        <v>13.2804887961209</v>
+        <v>91.46410399999999</v>
       </c>
       <c r="I14">
-        <v>0.1263626243225057</v>
+        <v>0.2751329786452017</v>
       </c>
       <c r="J14">
-        <v>0.1263626243225057</v>
+        <v>0.2879558237532028</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.559365894940731</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N14">
-        <v>0.559365894940731</v>
+        <v>2.89089</v>
       </c>
       <c r="O14">
-        <v>0.0030684288305113</v>
+        <v>0.00463428088190967</v>
       </c>
       <c r="P14">
-        <v>0.0030684288305113</v>
+        <v>0.004636691828827675</v>
       </c>
       <c r="Q14">
-        <v>7.428652500692518</v>
+        <v>29.37918484584</v>
       </c>
       <c r="R14">
-        <v>7.428652500692518</v>
+        <v>264.41266361256</v>
       </c>
       <c r="S14">
-        <v>0.0003877347195702448</v>
+        <v>0.00127504350291832</v>
       </c>
       <c r="T14">
-        <v>0.0003877347195702448</v>
+        <v>0.001335162415059818</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,57 +1340,57 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.2804887961209</v>
+        <v>30.48803466666666</v>
       </c>
       <c r="H15">
-        <v>13.2804887961209</v>
+        <v>91.46410399999999</v>
       </c>
       <c r="I15">
-        <v>0.1263626243225057</v>
+        <v>0.2751329786452017</v>
       </c>
       <c r="J15">
-        <v>0.1263626243225057</v>
+        <v>0.2879558237532028</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.5805052460525</v>
+        <v>71.62512099999999</v>
       </c>
       <c r="N15">
-        <v>67.5805052460525</v>
+        <v>214.875363</v>
       </c>
       <c r="O15">
-        <v>0.3707161493989182</v>
+        <v>0.3444588990740914</v>
       </c>
       <c r="P15">
-        <v>0.3707161493989182</v>
+        <v>0.344638101013349</v>
       </c>
       <c r="Q15">
-        <v>897.50214275639</v>
+        <v>2183.709172052194</v>
       </c>
       <c r="R15">
-        <v>897.50214275639</v>
+        <v>19653.38254846975</v>
       </c>
       <c r="S15">
-        <v>0.0468446655167814</v>
+        <v>0.09477200292310169</v>
       </c>
       <c r="T15">
-        <v>0.0468446655167814</v>
+        <v>0.09924054827403844</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,362 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.2804887961209</v>
+        <v>30.48803466666666</v>
       </c>
       <c r="H16">
-        <v>13.2804887961209</v>
+        <v>91.46410399999999</v>
       </c>
       <c r="I16">
-        <v>0.1263626243225057</v>
+        <v>0.2751329786452017</v>
       </c>
       <c r="J16">
-        <v>0.1263626243225057</v>
+        <v>0.2879558237532028</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>114.157299768955</v>
+        <v>135.0220616666666</v>
       </c>
       <c r="N16">
-        <v>114.157299768955</v>
+        <v>405.066185</v>
       </c>
       <c r="O16">
-        <v>0.6262154217705705</v>
+        <v>0.6493469059886695</v>
       </c>
       <c r="P16">
-        <v>0.6262154217705705</v>
+        <v>0.6496847234325412</v>
       </c>
       <c r="Q16">
-        <v>1516.064740577022</v>
+        <v>4116.557296858136</v>
       </c>
       <c r="R16">
-        <v>1516.064740577022</v>
+        <v>37049.01567172323</v>
       </c>
       <c r="S16">
-        <v>0.07913022408615406</v>
+        <v>0.1786567484187084</v>
       </c>
       <c r="T16">
-        <v>0.07913022408615406</v>
+        <v>0.1870804997158892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.48803466666666</v>
+      </c>
+      <c r="H17">
+        <v>91.46410399999999</v>
+      </c>
+      <c r="I17">
+        <v>0.2751329786452017</v>
+      </c>
+      <c r="J17">
+        <v>0.2879558237532028</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.324361</v>
+      </c>
+      <c r="N17">
+        <v>0.648722</v>
+      </c>
+      <c r="O17">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P17">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q17">
+        <v>9.889129412514666</v>
+      </c>
+      <c r="R17">
+        <v>59.334776475088</v>
+      </c>
+      <c r="S17">
+        <v>0.0004291838004733031</v>
+      </c>
+      <c r="T17">
+        <v>0.000299613348215406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>14.8035735</v>
+      </c>
+      <c r="H18">
+        <v>29.607147</v>
+      </c>
+      <c r="I18">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J18">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N18">
+        <v>2.89089</v>
+      </c>
+      <c r="O18">
+        <v>0.00463428088190967</v>
+      </c>
+      <c r="P18">
+        <v>0.004636691828827675</v>
+      </c>
+      <c r="Q18">
+        <v>14.265167531805</v>
+      </c>
+      <c r="R18">
+        <v>85.59100519083</v>
+      </c>
+      <c r="S18">
+        <v>0.0006191019007133819</v>
+      </c>
+      <c r="T18">
+        <v>0.000432195234663328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>14.8035735</v>
+      </c>
+      <c r="H19">
+        <v>29.607147</v>
+      </c>
+      <c r="I19">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J19">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>71.62512099999999</v>
+      </c>
+      <c r="N19">
+        <v>214.875363</v>
+      </c>
+      <c r="O19">
+        <v>0.3444588990740914</v>
+      </c>
+      <c r="P19">
+        <v>0.344638101013349</v>
+      </c>
+      <c r="Q19">
+        <v>1060.307743169893</v>
+      </c>
+      <c r="R19">
+        <v>6361.846459019361</v>
+      </c>
+      <c r="S19">
+        <v>0.04601688256895899</v>
+      </c>
+      <c r="T19">
+        <v>0.0321244004217223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.8035735</v>
+      </c>
+      <c r="H20">
+        <v>29.607147</v>
+      </c>
+      <c r="I20">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J20">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>135.0220616666666</v>
+      </c>
+      <c r="N20">
+        <v>405.066185</v>
+      </c>
+      <c r="O20">
+        <v>0.6493469059886695</v>
+      </c>
+      <c r="P20">
+        <v>0.6496847234325412</v>
+      </c>
+      <c r="Q20">
+        <v>1998.809014004032</v>
+      </c>
+      <c r="R20">
+        <v>11992.85408402419</v>
+      </c>
+      <c r="S20">
+        <v>0.08674741863170798</v>
+      </c>
+      <c r="T20">
+        <v>0.06055840065870857</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.8035735</v>
+      </c>
+      <c r="H21">
+        <v>29.607147</v>
+      </c>
+      <c r="I21">
+        <v>0.1335917948197964</v>
+      </c>
+      <c r="J21">
+        <v>0.09321198186522625</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.324361</v>
+      </c>
+      <c r="N21">
+        <v>0.648722</v>
+      </c>
+      <c r="O21">
+        <v>0.001559914055329434</v>
+      </c>
+      <c r="P21">
+        <v>0.001040483725282092</v>
+      </c>
+      <c r="Q21">
+        <v>4.8017019040335</v>
+      </c>
+      <c r="R21">
+        <v>19.206807616134</v>
+      </c>
+      <c r="S21">
+        <v>0.0002083917184160863</v>
+      </c>
+      <c r="T21">
+        <v>9.698555013205742E-05</v>
       </c>
     </row>
   </sheetData>
